--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Lienard', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Moalida']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Ounahi', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Wahi']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Elis']</t>
+    <t>['Lopez', 'Balde']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Aboukhlal', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Ganago', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Innocent']</t>
+  </si>
+  <si>
+    <t>['Ruiz', 'Messi', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>AS Monaco</t>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Caqueret', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Mbappe']</t>
-  </si>
-  <si>
-    <t>['Maurer']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Laborde', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Ganiou', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Cherki', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Balogin']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Boyer', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Terrier', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Gigot', 'Bailly']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lopez', 'Balde']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Aboukhlal', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Ganago', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Beka']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Messi', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Diallo']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Seguir']</t>
+    <t>['Mavididi', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Diop', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Tolisso', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Lipinski', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Theate']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Pallois', 'Ganago', 'Guessand']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Cherki', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Balogin']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Boyer', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Terrier', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Gigot', 'Bailly']</t>
+    <t>['Kipembe']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Rongier', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Bellegarde', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Gradit', 'Gradit']</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -680,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -738,16 +735,16 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,16 +764,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -831,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mavididi', 'Sainte-Luce']</t>
+    <t>['Aouar', 'Tolisso', 'Lepenant', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Ponceau', 'Silva', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Balerdi', 'Bailly', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Sanches', 'Neymar', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Valencia', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Bain']</t>
+  </si>
+  <si>
+    <t>['Gonzalez']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Diop', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Tolisso', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Lipinski', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Pallois', 'Ganago', 'Guessand']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", "N'Diaye"]</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Rongier', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Bellegarde', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Gradit', 'Gradit']</t>
+    <t>['Simon', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Sibide', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Cajuste', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Santamaria', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Dejaegere']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,15 +570,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,15 +599,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,27 +645,27 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,19 +674,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -712,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,24 +732,24 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,10 +819,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -831,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Aouar', 'Tolisso', 'Lepenant', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Ponceau', 'Silva', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi', 'Bailly', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Sanches', 'Neymar', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
+    <t>['Sylla', 'Ganiou', 'Varane', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Gigot', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Khazri', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Wooh']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Tavares']</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>['Healey', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Simon', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Sibide', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Cajuste', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Santamaria', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Dejaegere']</t>
+    <t>['Vidal']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Attal', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Pelon', 'Matsima']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +543,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -570,15 +567,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +584,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,15 +596,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +613,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,15 +625,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +642,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -654,7 +651,7 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -662,7 +659,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -674,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -683,18 +680,18 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,27 +700,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,21 +732,21 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -761,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -770,18 +767,18 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +787,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -819,19 +816,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Aouar', 'Tolisso', 'Lepenant', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Ponceau', 'Silva', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi', 'Bailly', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Sanches', 'Neymar', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia', 'Le_Cardinal']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
+    <t>['Conte', 'Conte', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Simon', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Sibide', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Cajuste', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Santamaria', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Dejaegere']</t>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Caqueret']</t>
+  </si>
+  <si>
+    <t>['Rongier']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Perrin', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Kipembe', 'Mbappe']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,19 +648,19 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -691,10 +694,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,24 +706,24 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,21 +738,21 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -764,24 +767,24 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -819,19 +822,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sylla', 'Ganiou', 'Varane', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Gigot', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Khazri', 'Khazri']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Wooh']</t>
-  </si>
-  <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Tavares']</t>
+    <t>['Mollet', 'Delort', 'Pallois', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Nordin', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Brassier', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Healey', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Burlet', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Healey', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Odobert']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Vidal']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Pelon', 'Matsima']</t>
+    <t>['Sanches', 'Sanches', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Sylla']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Borges', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Doumbia', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Dembele', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'H.Diallo', 'Sanson']</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -601,7 +604,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -630,7 +633,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -642,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -671,16 +674,16 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -688,10 +691,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -700,27 +703,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -729,27 +732,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,21 +764,21 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -796,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -816,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -825,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Porozo', 'Lopez', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Coco', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Bercola']</t>
+    <t>['Lebas', 'Silla', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Medina', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Sanson', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Coco', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Massolin']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Nice</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Yoro']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Capelle', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Ramos', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Mavididi', 'Tchato', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Le_Douaron', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Boura']</t>
+    <t>['Yoro', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Jeanvier', 'Da_Costa', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Rodon', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Jakobs', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Spierings', 'Spierings']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +543,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,19 +552,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -587,19 +581,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -610,57 +604,57 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,62 +662,62 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -732,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -741,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -752,7 +746,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -790,19 +784,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,28 +804,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lebas', 'Silla', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Medina', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Sanson', 'Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Coco', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Massolin']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Healey', 'Ratao', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Rodon', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lepenant', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
+  </si>
+  <si>
+    <t>['Boura']</t>
+  </si>
+  <si>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Beka']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Jeanvier', 'Da_Costa', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Rodon', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Jakobs', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'Spierings', 'Spierings']</t>
+    <t>['Chardonnet', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Sibide', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Silla']</t>
   </si>
 </sst>
 </file>
@@ -509,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,294 +552,360 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
     </row>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Dallinga', 'Healey', 'Ratao', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Rodon', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Lepenant', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
-  </si>
-  <si>
-    <t>['Boura']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
+    <t>['Sylla', 'Fortes', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Silla']</t>
+    <t>['Salmier', 'Chavalerin', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Mavididi']</t>
+  </si>
+  <si>
+    <t>['Ounahi']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Ruiz', 'Soler', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Gastien', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Camara', 'Sima']</t>
   </si>
 </sst>
 </file>
@@ -561,13 +558,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -576,10 +573,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -588,10 +585,10 @@
         <v>40</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,10 +608,10 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -631,7 +628,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -646,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -666,13 +663,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -684,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -693,15 +690,15 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -736,13 +733,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -754,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -763,15 +760,15 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -806,13 +803,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -824,24 +821,24 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -865,7 +862,7 @@
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -876,7 +873,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -891,16 +888,16 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>3</v>

--- a/jour1.xlsx
+++ b/jour1.xlsx
@@ -46,121 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Sylla', 'Fortes', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Le_Goff']</t>
+    <t>["N'Diaye", 'Lebas', "N'Diaye", 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Masson', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'ChaÃ¯bi', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Pepe', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Chavalerin', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Mavididi']</t>
-  </si>
-  <si>
-    <t>['Ounahi']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Soler', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Gastien', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Camara', 'Sima']</t>
+    <t>['Lopez', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Wieteska']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'Gudmundsson', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
+  </si>
+  <si>
+    <t>['Wooh']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Soler', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Laporte', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Yedder']</t>
   </si>
 </sst>
 </file>
@@ -558,13 +558,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -573,10 +573,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -585,15 +585,15 @@
         <v>40</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -608,16 +608,16 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -643,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -678,33 +678,33 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -716,30 +716,30 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -751,30 +751,30 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -786,30 +786,30 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -818,27 +818,27 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
